--- a/Output_analysis/2Stage/2Stage_tBW.xlsx
+++ b/Output_analysis/2Stage/2Stage_tBW.xlsx
@@ -12,49 +12,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
   <si>
     <t xml:space="preserve">temp</t>
   </si>
   <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert
+ -228,1 (-310,2, -146,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert
+ 350,7 (145,1, 556,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate dry, hot summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate dry, hot summer
+ -88 (-177,3, 1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate dry, hot summer
+ -265,6 (-473,7, -57,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate dry, warm summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate dry, warm summer
+ -80,2 (-163, 2,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate dry, warm summer
+ -72 (-278,1, 134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate, no dry season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate, no dry season
+ -34,3 (-117,5, 48,9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate, no dry season
+ 72,9 (-133,6, 279,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold steppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold steppe
+ -95,8 (-204,8, 13,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold steppe
+ 5,7 (-228,1, 239,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooled
+ -105,3 (-183,1, -27,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooled
+ 18,3 (-186, 222,6)</t>
   </si>
   <si>
     <t xml:space="preserve">Desert
  -232,2 (-370,2, -94,2)</t>
   </si>
   <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desert
  168,1 (-7,1, 343,4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperate dry, hot summer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Temperate dry, hot summer
  126,1 (-17,7, 269,9)</t>
   </si>
@@ -63,9 +126,6 @@
  -314,5 (-497,8, -131,3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperate dry, warm summer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Temperate dry, warm summer
  -97,8 (-234,4, 38,8)</t>
   </si>
@@ -74,9 +134,6 @@
  19,2 (-155,7, 194,1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperate, no dry season</t>
-  </si>
-  <si>
     <t xml:space="preserve">Temperate, no dry season
  62,3 (-74,7, 199,3)</t>
   </si>
@@ -85,9 +142,6 @@
  106,8 (-68,7, 282,4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cold steppe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cold steppe
  -23,4 (-188,8, 141,9)</t>
   </si>
@@ -96,9 +150,6 @@
  -55 (-253,6, 143,6)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pooled</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pooled
  -33 (-164,9, 98,9)</t>
   </si>
@@ -107,11 +158,11 @@
  -15,1 (-188,7, 158,5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desert
  -190,2 (-321,8, -58,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
   </si>
   <si>
     <t xml:space="preserve">Desert
@@ -509,25 +560,25 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>-228.12533480225</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-310.158213039305</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-146.092456565194</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
-        <v>-232.214969666885</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-370.235906078146</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-94.1940332556236</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -535,598 +586,910 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>350.743057909631</v>
+      </c>
+      <c r="C3" t="n">
+        <v>145.059335696735</v>
+      </c>
+      <c r="D3" t="n">
+        <v>556.426780122527</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>168.130252464802</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-7.14572347809647</v>
-      </c>
-      <c r="E3" t="n">
-        <v>343.4062284077</v>
-      </c>
-      <c r="F3" t="n">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-88.0409807490222</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-177.266699945307</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.18473844726233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>126.079560873852</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-17.7235045237641</v>
-      </c>
-      <c r="E4" t="n">
-        <v>269.882626271468</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="n">
+        <v>-265.58641952399</v>
+      </c>
       <c r="C5" t="n">
-        <v>-314.529922046319</v>
+        <v>-473.679379169735</v>
       </c>
       <c r="D5" t="n">
-        <v>-497.774761571437</v>
+        <v>-57.493459878245</v>
       </c>
       <c r="E5" t="n">
-        <v>-131.285082521201</v>
-      </c>
-      <c r="F5" t="n">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="n">
+      <c r="G5" t="n">
         <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="B6" t="n">
+        <v>-80.1591299949133</v>
+      </c>
       <c r="C6" t="n">
-        <v>-97.8152023720583</v>
+        <v>-162.958659358138</v>
       </c>
       <c r="D6" t="n">
-        <v>-234.416318538333</v>
+        <v>2.64039936831178</v>
       </c>
       <c r="E6" t="n">
-        <v>38.7859137942162</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="n">
+      <c r="G6" t="n">
         <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="B7" t="n">
+        <v>-72.0401770389272</v>
+      </c>
       <c r="C7" t="n">
-        <v>19.1755728166625</v>
+        <v>-278.080233031194</v>
       </c>
       <c r="D7" t="n">
-        <v>-155.708817381067</v>
+        <v>133.99987895334</v>
       </c>
       <c r="E7" t="n">
-        <v>194.059963014392</v>
-      </c>
-      <c r="F7" t="n">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="n">
-        <v>5</v>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="B8" t="n">
+        <v>-34.3221884204689</v>
+      </c>
       <c r="C8" t="n">
-        <v>62.271006515076</v>
+        <v>-117.511764462377</v>
       </c>
       <c r="D8" t="n">
-        <v>-74.7459142484709</v>
+        <v>48.8673876214391</v>
       </c>
       <c r="E8" t="n">
-        <v>199.287927278623</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="n">
+      <c r="G8" t="n">
         <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="B9" t="n">
+        <v>72.9349520419899</v>
+      </c>
       <c r="C9" t="n">
-        <v>106.83723818716</v>
+        <v>-133.556357752514</v>
       </c>
       <c r="D9" t="n">
-        <v>-68.7419889415868</v>
+        <v>279.426261836494</v>
       </c>
       <c r="E9" t="n">
-        <v>282.416465315906</v>
-      </c>
-      <c r="F9" t="n">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="n">
+      <c r="G9" t="n">
         <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
         <v>21</v>
       </c>
+      <c r="B10" t="n">
+        <v>-95.7564223186767</v>
+      </c>
       <c r="C10" t="n">
-        <v>-23.4387825560166</v>
+        <v>-204.768342110629</v>
       </c>
       <c r="D10" t="n">
-        <v>-188.827053436152</v>
+        <v>13.2554974732754</v>
       </c>
       <c r="E10" t="n">
-        <v>141.949488324119</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" t="n">
+      <c r="G10" t="n">
         <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="B11" t="n">
+        <v>5.68725933159487</v>
+      </c>
       <c r="C11" t="n">
-        <v>-54.9981864279122</v>
+        <v>-228.062233860128</v>
       </c>
       <c r="D11" t="n">
-        <v>-253.587736311124</v>
+        <v>239.436752523318</v>
       </c>
       <c r="E11" t="n">
-        <v>143.5913634553</v>
-      </c>
-      <c r="F11" t="n">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="n">
+      <c r="G11" t="n">
         <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="B12" t="n">
+        <v>-105.280811257066</v>
+      </c>
       <c r="C12" t="n">
-        <v>-33.0236774412066</v>
+        <v>-183.062409870538</v>
       </c>
       <c r="D12" t="n">
-        <v>-164.915714949838</v>
+        <v>-27.4992126435938</v>
       </c>
       <c r="E12" t="n">
-        <v>98.8683600674244</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="n">
+      <c r="G12" t="n">
         <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
         <v>24</v>
       </c>
+      <c r="B13" t="n">
+        <v>18.3477345440599</v>
+      </c>
       <c r="C13" t="n">
-        <v>-15.0770090011215</v>
+        <v>-185.950665125768</v>
       </c>
       <c r="D13" t="n">
-        <v>-188.70346612394</v>
+        <v>222.646134213888</v>
       </c>
       <c r="E13" t="n">
-        <v>158.549448121697</v>
-      </c>
-      <c r="F13" t="n">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" t="n">
+      <c r="G13" t="n">
         <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-232.214969666885</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-370.235906078146</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-94.1940332556236</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-190.211097841187</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-321.756085350934</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-58.6661103314398</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
         <v>28</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>168.130252464802</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.14572347809647</v>
+      </c>
+      <c r="D15" t="n">
+        <v>343.4062284077</v>
+      </c>
+      <c r="E15" t="n">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="n">
         <v>9</v>
       </c>
-      <c r="C15" t="n">
-        <v>118.315807330702</v>
-      </c>
-      <c r="D15" t="n">
-        <v>32.9269142251475</v>
-      </c>
-      <c r="E15" t="n">
-        <v>203.704700436257</v>
-      </c>
-      <c r="F15" t="n">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+      <c r="H15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
         <v>12</v>
       </c>
+      <c r="B16" t="n">
+        <v>126.079560873852</v>
+      </c>
       <c r="C16" t="n">
-        <v>-290.720162667372</v>
+        <v>-17.7235045237641</v>
       </c>
       <c r="D16" t="n">
-        <v>-428.096614988312</v>
+        <v>269.882626271468</v>
       </c>
       <c r="E16" t="n">
-        <v>-153.343710346432</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="H16" t="n">
+      <c r="G16" t="n">
         <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="B17" t="n">
+        <v>-314.529922046319</v>
+      </c>
       <c r="C17" t="n">
-        <v>66.2408830225434</v>
+        <v>-497.774761571437</v>
       </c>
       <c r="D17" t="n">
-        <v>-25.4965844848466</v>
+        <v>-131.285082521201</v>
       </c>
       <c r="E17" t="n">
-        <v>157.978350529933</v>
-      </c>
-      <c r="F17" t="n">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="n">
+      <c r="G17" t="n">
         <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
         <v>15</v>
       </c>
+      <c r="B18" t="n">
+        <v>-97.8152023720583</v>
+      </c>
       <c r="C18" t="n">
-        <v>8.66008267376488</v>
+        <v>-234.416318538333</v>
       </c>
       <c r="D18" t="n">
-        <v>-129.38002774404</v>
+        <v>38.7859137942162</v>
       </c>
       <c r="E18" t="n">
-        <v>146.70019309157</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" t="n">
+      <c r="G18" t="n">
         <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
         <v>15</v>
       </c>
+      <c r="B19" t="n">
+        <v>19.1755728166625</v>
+      </c>
       <c r="C19" t="n">
-        <v>-51.6894236110593</v>
+        <v>-155.708817381067</v>
       </c>
       <c r="D19" t="n">
-        <v>-135.166600119683</v>
+        <v>194.059963014392</v>
       </c>
       <c r="E19" t="n">
-        <v>31.7877528975641</v>
-      </c>
-      <c r="F19" t="n">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" t="n">
-        <v>5</v>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="B20" t="n">
+        <v>62.271006515076</v>
+      </c>
       <c r="C20" t="n">
-        <v>-36.2123270282068</v>
+        <v>-74.7459142484709</v>
       </c>
       <c r="D20" t="n">
-        <v>-175.779164002919</v>
+        <v>199.287927278623</v>
       </c>
       <c r="E20" t="n">
-        <v>103.354509946505</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" t="n">
+      <c r="G20" t="n">
         <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
         <v>18</v>
       </c>
+      <c r="B21" t="n">
+        <v>106.83723818716</v>
+      </c>
       <c r="C21" t="n">
-        <v>127.945245139472</v>
+        <v>-68.7419889415868</v>
       </c>
       <c r="D21" t="n">
-        <v>41.151959281307</v>
+        <v>282.416465315906</v>
       </c>
       <c r="E21" t="n">
-        <v>214.738530997638</v>
-      </c>
-      <c r="F21" t="n">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
         <v>35</v>
       </c>
-      <c r="H21" t="n">
+      <c r="G21" t="n">
         <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
         <v>21</v>
       </c>
+      <c r="B22" t="n">
+        <v>-23.4387825560166</v>
+      </c>
       <c r="C22" t="n">
-        <v>-8.01090291818815</v>
+        <v>-188.827053436152</v>
       </c>
       <c r="D22" t="n">
-        <v>-189.936660009295</v>
+        <v>141.949488324119</v>
       </c>
       <c r="E22" t="n">
-        <v>173.914854172918</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>36</v>
       </c>
-      <c r="H22" t="n">
+      <c r="G22" t="n">
         <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
         <v>21</v>
       </c>
+      <c r="B23" t="n">
+        <v>-54.9981864279122</v>
+      </c>
       <c r="C23" t="n">
-        <v>-6.89414162952465</v>
+        <v>-253.587736311124</v>
       </c>
       <c r="D23" t="n">
-        <v>-117.350019584326</v>
+        <v>143.5913634553</v>
       </c>
       <c r="E23" t="n">
-        <v>103.561736325276</v>
-      </c>
-      <c r="F23" t="n">
-        <v>95</v>
-      </c>
-      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="H23" t="n">
+      <c r="G23" t="n">
         <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" t="n">
+        <v>-33.0236774412066</v>
+      </c>
       <c r="C24" t="n">
-        <v>-33.0236774412066</v>
+        <v>-164.915714949838</v>
       </c>
       <c r="D24" t="n">
-        <v>-164.915714949838</v>
+        <v>98.8683600674244</v>
       </c>
       <c r="E24" t="n">
-        <v>98.8683600674244</v>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="n">
         <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
         <v>24</v>
       </c>
+      <c r="B25" t="n">
+        <v>-15.0770090011215</v>
+      </c>
       <c r="C25" t="n">
+        <v>-188.70346612394</v>
+      </c>
+      <c r="D25" t="n">
+        <v>158.549448121697</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-190.211097841187</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-321.756085350934</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-58.6661103314398</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="n">
+        <v>118.315807330702</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.9269142251475</v>
+      </c>
+      <c r="D27" t="n">
+        <v>203.704700436257</v>
+      </c>
+      <c r="E27" t="n">
+        <v>95</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-290.720162667372</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-428.096614988312</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-153.343710346432</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>66.2408830225434</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-25.4965844848466</v>
+      </c>
+      <c r="D29" t="n">
+        <v>157.978350529933</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.66008267376488</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-129.38002774404</v>
+      </c>
+      <c r="D30" t="n">
+        <v>146.70019309157</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-51.6894236110593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-135.166600119683</v>
+      </c>
+      <c r="D31" t="n">
+        <v>31.7877528975641</v>
+      </c>
+      <c r="E31" t="n">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-36.2123270282068</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-175.779164002919</v>
+      </c>
+      <c r="D32" t="n">
+        <v>103.354509946505</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>127.945245139472</v>
+      </c>
+      <c r="C33" t="n">
+        <v>41.151959281307</v>
+      </c>
+      <c r="D33" t="n">
+        <v>214.738530997638</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-8.01090291818815</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-189.936660009295</v>
+      </c>
+      <c r="D34" t="n">
+        <v>173.914854172918</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-6.89414162952465</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-117.350019584326</v>
+      </c>
+      <c r="D35" t="n">
+        <v>103.561736325276</v>
+      </c>
+      <c r="E35" t="n">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-33.0236774412066</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-164.915714949838</v>
+      </c>
+      <c r="D36" t="n">
+        <v>98.8683600674244</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="n">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="n">
         <v>-15.0770090011215</v>
       </c>
-      <c r="D25" t="n">
+      <c r="C37" t="n">
         <v>-188.70346612394</v>
       </c>
-      <c r="E25" t="n">
+      <c r="D37" t="n">
         <v>158.549448121697</v>
       </c>
-      <c r="F25" t="n">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="E37" t="n">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="n">
         <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
